--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45629.59212962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44574</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44587</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44579</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45674</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45228</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44950</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45212</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44812</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>45575</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>44300</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45922.64197916666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>46036.48571759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45681</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44714</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45680</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>45896.54207175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45107</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45735.86130787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>45706.66359953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44993.71164351852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45575</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45824.57144675926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45733.60920138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>44757</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45656.45586805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45030</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45546.67635416667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45313</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>46036.48075231481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>45104</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>45575</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45687.86934027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>46030</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44508</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44859</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45115</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44959</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45714</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45343.68663194445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44293.7392824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44348.52565972223</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44530.40655092592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44461.47859953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44812</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44798</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44237</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44237</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44315</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44606</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44889.51722222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44607</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>44480.42299768519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44509</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44615</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44376.68837962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44456</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44458</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44461.47516203704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44733</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44825.50923611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44516.35936342592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44466.59140046296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44413</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44300</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44607</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44818</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44343.5646875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44343.62412037037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44647.87050925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44459</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44487</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44510.28791666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44753</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44866</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44343.61642361111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44343.62988425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44358</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44729</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44528.6599074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44783.38261574074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44447</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44386</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44434</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44449</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44452.38803240741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44510.29388888889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44461.51197916667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44419</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44424</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44764</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44405</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44446</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44446</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44454.50037037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44480</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44480</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44420</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44853</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44756.86049768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44610</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44397</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44256</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44509.74381944445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44467.58364583334</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44776.45553240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>44463.58862268519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44503</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44530.56172453704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44637</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44733.62664351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44512</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44501.44331018518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44850</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44398</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44637</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44831</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44638</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44714</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44279</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44509.7458449074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44244</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44474</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44637</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44637</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44334.75537037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44323.73480324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44486</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44734</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44461.49383101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44641</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44514</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44595</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44432.64310185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44391</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44859.72824074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44945.72797453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45348</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44687.54699074074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44967.51170138889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45224.59074074074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44508</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45373</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44608</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44608.32383101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44608</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45714.74899305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44859.69508101852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45058.59846064815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45706.67792824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45733.46162037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>45517.47724537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>45343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>45307.60575231481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45035.6899537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45715.4134375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44497</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44631</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45741.61515046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45656</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45453.59858796297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45453.6003587963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44959</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44950.89840277778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45681</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45254</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45115</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45115</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44474</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>45208</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45680</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44397</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45817.37068287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45453.84284722222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44442</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45510</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45817</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>45244</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45805.50146990741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44487</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45303</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44866.65612268518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45572.45697916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45840</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45072.39223379629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44967.39028935185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45890.67743055556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45891</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45817.37528935185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44928</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>45817.32715277778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45104</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>45897.37609953704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44568.39900462963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45158.89597222222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45896.52702546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45896.58164351852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45896.51261574074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>45170</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45819.350625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45898.63958333333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45027.51179398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45322</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45904.41351851852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45904.61800925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45903.77434027778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45905.57699074074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45904.4365625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45825.69447916667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45825.6991550926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45733.61251157407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45748</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45714</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45599</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45257</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45485</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45485</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45569.55479166667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45485</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>44593.68526620371</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44558</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44498.3784837963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44662</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44648</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44645</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44650</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44739</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44385</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>45748.51697916666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>45748</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45733.61097222222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45827.60635416667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45642</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45708.95491898148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45827.53324074074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>45917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45827.61739583333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45922.62282407407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45922.63743055556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45922.57255787037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>45198.40267361111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45208.54440972222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45922.62559027778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45208.60009259259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44859.89707175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45484.44842592593</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45089</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45313.60285879629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45835.52680555556</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45674</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45835.52280092592</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44431</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44828</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44865.47030092592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45834.36265046296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45502.59939814815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45471.6228587963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45835</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45930.49436342593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45933.55381944445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44438</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44376.67820601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44942</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45936.49065972222</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45238</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45933.89425925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44391.40619212963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45933.89484953704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45933.89372685185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45933.90118055556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45840.60313657407</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>45933.89319444444</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>45933.90063657407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45934.66789351852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45840.60550925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45072.3937037037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>45937.75732638889</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45937.75648148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45937.75783564815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44503.65924768519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45211</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45105.61784722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45940.64311342593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45439.70784722222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45103.51847222223</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45846.67712962963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44610</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45846.67590277778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45728.35930555555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45105.6140625</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44606.59967592593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45257.67709490741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45572.47811342592</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45742.36125</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45838.78107638889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44511</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45707</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45607</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45434.62350694444</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45840.67255787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45876</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45489.4169212963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44573</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45253.65600694445</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45876</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>45876</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44804.44864583333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>45881.58667824074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>45162</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>45964.47820601852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45964.49197916667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45964.49260416667</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45964.50881944445</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45723.52434027778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45964.52699074074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>45964.52752314815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45964.50622685185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45964.50684027778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45469.456875</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>45254.51172453703</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>45107</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44244</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>45608</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>44970.63328703704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>45975.38548611111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44438</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>45974.49936342592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>45887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>45975.38383101852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45426.60180555555</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45599</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>44655.36789351852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44781</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>46021.43664351852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45587.40885416666</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45391.67054398148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45303</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45625.34609953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45625.34493055556</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45327</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>46027.74706018518</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>46027.74896990741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>45986</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45525</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>45525</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45707</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44993</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45987</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45733.46217592592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45988.63296296296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44697</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>46030.71740740741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>46030.71020833333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45441</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45988.63138888889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>46030.71207175926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45988.62762731482</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45988.62976851852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45246</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44662.70594907407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44422</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45427.58246527778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>46036.4891087963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>44808</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45198</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45994.54824074074</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44995.5728125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45999.54153935185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>45455.86207175926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45999.54109953704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>46030</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45373</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>46001.7097337963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>46001.71209490741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45404.66259259259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44676.48239583334</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>44676.48760416666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>46042.60760416667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>46042.63996527778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>46042.64711805555</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>44909.67884259259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>44753</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>46043.54592592592</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44358.58163194444</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>46045.61797453704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>46030</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>44999.52805555556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44999.53216435185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45022</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44343</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45609.47806712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45533.58539351852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>46030</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45408.59015046297</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>46049.4886574074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>44957</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>46007.66248842593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>46007.67032407408</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>46007.67262731482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>45692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>46007.67962962963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>45188.48960648148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>45456.56702546297</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         <v>44494.59873842593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
         <v>44999.52975694444</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
         <v>45301</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>44578</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>46010.67173611111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>44422</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>46013.59997685185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>46010.63524305556</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44889.5547337963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45226</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45664</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45664</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45162</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>46058.48521990741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44748.73148148148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44915.51126157407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44435.62600694445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>45733.4640625</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>45314</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>45510</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>45473</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>45447.37612268519</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44739.6334375</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45042.4005787037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45525.64034722222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45285</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45030.49903935185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45217.42408564815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>44606.59517361111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45385</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45625.34328703704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45132.59460648148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>44595</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>45104.38340277778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>45104</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>45503.97861111111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
         <v>44993.64357638889</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>45572.31850694444</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>44907.60194444445</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>45495.3559375</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45723.52491898148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45723.58001157407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45469.45405092592</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45511.89145833333</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45190.43935185186</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45235</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32688,7 +32688,7 @@
         <v>45391.63415509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>45231.68974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>44615</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>44602.59796296297</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45719.76690972222</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44791</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45028.51484953704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45370.59278935185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>45448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         <v>45489.41846064815</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45506.94680555556</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45191</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33392,7 +33392,7 @@
         <v>45723.52548611111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33454,7 +33454,7 @@
         <v>44452</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33511,7 +33511,7 @@
         <v>44641</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44999.53523148148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44463.67348379629</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44467</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33749,7 +33749,7 @@
         <v>44609</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33863,7 +33863,7 @@
         <v>45546.61826388889</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>44967.51108796296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44950</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44950.90216435185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45364.41105324074</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>45586.63421296296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44426</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         <v>45267.75094907408</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>45708</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34448,7 +34448,7 @@
         <v>44473.82302083333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>44488</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>45714</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34624,7 +34624,7 @@
         <v>44425.63494212963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34681,7 +34681,7 @@
         <v>44552.34407407408</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34738,7 +34738,7 @@
         <v>45511</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         <v>44874</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34852,7 +34852,7 @@
         <v>45735.67546296296</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>45327</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44844</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>44995.5708912037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>45109.58806712963</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>45184.41854166667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35204,7 +35204,7 @@
         <v>44244</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>44487</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>45625.34810185185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44733</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>44438</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45481.97215277778</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44967.5105787037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44501</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44461.52310185185</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44642</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>45707</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>45707</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>45007.47386574074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>45254</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36094,7 +36094,7 @@
         <v>45706</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44456.4811574074</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>45481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44641</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36337,7 +36337,7 @@
         <v>44907.60333333333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36399,7 +36399,7 @@
         <v>45560.50434027778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45664</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45664</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36575,7 +36575,7 @@
         <v>45777.55422453704</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36632,7 +36632,7 @@
         <v>45777.54607638889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36689,7 +36689,7 @@
         <v>45777.55945601852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36746,7 +36746,7 @@
         <v>45601.37609953704</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>45559.39498842593</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>45303.44383101852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>45470.45872685185</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45407</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37031,7 +37031,7 @@
         <v>45775</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37088,7 +37088,7 @@
         <v>45667.99460648148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37145,7 +37145,7 @@
         <v>45617.45731481481</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37202,7 +37202,7 @@
         <v>45569.41788194444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37259,7 +37259,7 @@
         <v>45791</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37316,7 +37316,7 @@
         <v>45258</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>45790.58875</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>45303</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>45720</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45629.59212962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44574</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44587</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44579</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45674</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>45228</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44950</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>44375</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1861,7 @@
         <v>45212</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1948,7 +1948,7 @@
         <v>45810</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44812</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         <v>45575</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2219,7 +2219,7 @@
         <v>44300</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45922.64197916666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>46036.48571759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2668,7 +2668,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>45681</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44714</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>44463</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3023,7 +3023,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         <v>45680</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>45896.54207175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44722</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
         <v>45107</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>44416</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>44452</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
         <v>44518</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>45735.86130787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>45706.66359953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>44993.71164351852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45575</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>45824.57144675926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45733.60920138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>44757</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>45656.45586805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45030</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4601,7 +4601,7 @@
         <v>45546.67635416667</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45510</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         <v>44476</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
         <v>45313</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4951,7 +4951,7 @@
         <v>45629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>46036.48075231481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5126,7 +5126,7 @@
         <v>45104</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         <v>45575</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>45525</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>45687.86934027778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>46030</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5565,7 +5565,7 @@
         <v>44508</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5650,7 +5650,7 @@
         <v>44859</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>45115</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>44959</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         <v>45714</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>45343.68663194445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6089,7 +6089,7 @@
         <v>44495</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6146,7 +6146,7 @@
         <v>44293.7392824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
         <v>44348.52565972223</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>44530.40655092592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>44518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6374,7 +6374,7 @@
         <v>44461.47859953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         <v>44812</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44798</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>44430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44237</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>44237</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>44491</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
         <v>44315</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6892,7 +6892,7 @@
         <v>44606</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>44889.51722222222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>44607</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44529</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7130,7 +7130,7 @@
         <v>44480.42299768519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>44509</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7249,7 +7249,7 @@
         <v>44615</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>44376.68837962963</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
         <v>44456</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7420,7 +7420,7 @@
         <v>44458</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>44461.47516203704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         <v>44783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>44733</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>44825.50923611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7705,7 +7705,7 @@
         <v>44516.35936342592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7767,7 +7767,7 @@
         <v>44844</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7824,7 +7824,7 @@
         <v>44466.59140046296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         <v>44413</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44300</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44607</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44818</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8171,7 +8171,7 @@
         <v>44343.5646875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>44343.62412037037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>44647.87050925926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>44459</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>44487</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44510.28791666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>44753</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44866</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44343.61642361111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44343.62988425926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44358</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44430</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44729</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44528.6599074074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44783.38261574074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44781</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44389</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44447</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44386</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44434</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44449</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44452.38803240741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44510.29388888889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44461.51197916667</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44419</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9678,7 +9678,7 @@
         <v>44424</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9735,7 +9735,7 @@
         <v>44767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9792,7 +9792,7 @@
         <v>44764</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9849,7 +9849,7 @@
         <v>44405</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9906,7 +9906,7 @@
         <v>44446</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9963,7 +9963,7 @@
         <v>44446</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10020,7 +10020,7 @@
         <v>44454.50037037037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10077,7 +10077,7 @@
         <v>44480</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>44480</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10196,7 +10196,7 @@
         <v>44420</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10253,7 +10253,7 @@
         <v>44853</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10310,7 +10310,7 @@
         <v>44756.86049768519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10367,7 +10367,7 @@
         <v>44610</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10424,7 +10424,7 @@
         <v>44397</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
         <v>44463</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10543,7 +10543,7 @@
         <v>44407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10600,7 +10600,7 @@
         <v>44256</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10657,7 +10657,7 @@
         <v>44509.74381944445</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10719,7 +10719,7 @@
         <v>44467.58364583334</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10776,7 +10776,7 @@
         <v>44776.45553240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10838,7 +10838,7 @@
         <v>44463.58862268519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10900,7 +10900,7 @@
         <v>44503</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
         <v>44530.56172453704</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>44637</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>44733.62664351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>44512</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44501.44331018518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44850</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44398</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44438</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44637</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44517</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44831</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>44638</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>44714</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>44279</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>44509.7458449074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44244</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11998,7 +11998,7 @@
         <v>44474</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>44637</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>44637</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44334.75537037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44323.73480324074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44486</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44734</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44424</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44461.49383101852</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         <v>44796</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
         <v>44641</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>44523</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>44514</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12764,7 +12764,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12821,7 +12821,7 @@
         <v>44592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12878,7 +12878,7 @@
         <v>44595</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12935,7 +12935,7 @@
         <v>44413</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12992,7 +12992,7 @@
         <v>44432.64310185185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13049,7 +13049,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44391</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44859.72824074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13225,7 +13225,7 @@
         <v>44945.72797453704</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13282,7 +13282,7 @@
         <v>45348</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13339,7 +13339,7 @@
         <v>44687.54699074074</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13401,7 +13401,7 @@
         <v>44967.51170138889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13463,7 +13463,7 @@
         <v>45224.59074074074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13520,7 +13520,7 @@
         <v>45078</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13577,7 +13577,7 @@
         <v>44508</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13634,7 +13634,7 @@
         <v>45373</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13691,7 +13691,7 @@
         <v>44608</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13748,7 +13748,7 @@
         <v>44608.32383101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13805,7 +13805,7 @@
         <v>44608</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13862,7 +13862,7 @@
         <v>45162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13919,7 +13919,7 @@
         <v>45714.74899305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13976,7 +13976,7 @@
         <v>44859.69508101852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14033,7 +14033,7 @@
         <v>45058.59846064815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14095,7 +14095,7 @@
         <v>45706.67792824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>45733.46162037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>44438</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>45517.47724537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>45343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>45307.60575231481</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>45035.6899537037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>45715.4134375</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>44497</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44631</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>45741.61515046296</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>45656</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14789,7 +14789,7 @@
         <v>45453.59858796297</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14846,7 +14846,7 @@
         <v>45453.6003587963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14903,7 +14903,7 @@
         <v>44959</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14960,7 +14960,7 @@
         <v>44864</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15017,7 +15017,7 @@
         <v>44950.89840277778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15074,7 +15074,7 @@
         <v>45681</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>45254</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44734</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15245,7 +15245,7 @@
         <v>45115</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15307,7 +15307,7 @@
         <v>45115</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44474</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         <v>45208</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>45680</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>44397</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15607,7 +15607,7 @@
         <v>44593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15669,7 +15669,7 @@
         <v>45817.37068287037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15726,7 +15726,7 @@
         <v>45453.84284722222</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>44442</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>45510</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>45817</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45887</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>45244</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45805.50146990741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44487</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>45303</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>45758</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44866.65612268518</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>45572.45697916667</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16425,7 +16425,7 @@
         <v>45840</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16482,7 +16482,7 @@
         <v>45072</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>45072.39223379629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44967.39028935185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>45890.67743055556</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         <v>45891</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16767,7 +16767,7 @@
         <v>45817.37528935185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16824,7 +16824,7 @@
         <v>44928</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16881,7 +16881,7 @@
         <v>45817.32715277778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>45104</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16995,7 +16995,7 @@
         <v>45897.37609953704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17052,7 +17052,7 @@
         <v>44568.39900462963</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>45158.89597222222</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>45896.52702546296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>45896.58164351852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>45896.51261574074</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>45170</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45819.350625</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45898.63958333333</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45027.51179398148</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>44809</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45322</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>45904.41351851852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45904.61800925926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45903.77434027778</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>45905.57699074074</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45000</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45904.4365625</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45825.69447916667</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>45825.6991550926</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>45733.61251157407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>45748</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>45714</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>45599</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>45257</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45485</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45485</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45569.55479166667</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45485</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>44593.68526620371</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18745,7 +18745,7 @@
         <v>44558</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>44498.3784837963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44662</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18916,7 +18916,7 @@
         <v>44648</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18973,7 +18973,7 @@
         <v>44645</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44650</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19087,7 +19087,7 @@
         <v>44739</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         <v>44385</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19201,7 +19201,7 @@
         <v>45748.51697916666</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>45748</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45733.61097222222</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45827.60635416667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45642</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45708.95491898148</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>44855</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45827.53324074074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19667,7 +19667,7 @@
         <v>45917</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>45827.61739583333</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45922.62282407407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45922.63743055556</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45922.57255787037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>45198.40267361111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45208.54440972222</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45922.62559027778</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45208.60009259259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45656</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45656</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45656</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>44859.89707175926</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45484.44842592593</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45089</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45313.60285879629</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45835.52680555556</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45674</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45835.52280092592</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>44431</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>44828</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>44865.47030092592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45834.36265046296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45502.59939814815</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45471.6228587963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>45835</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>45930.49436342593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21226,7 +21226,7 @@
         <v>45933.55381944445</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21288,7 +21288,7 @@
         <v>44438</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21345,7 +21345,7 @@
         <v>44376.67820601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21402,7 +21402,7 @@
         <v>44942</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>45936.49065972222</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>45238</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21573,7 +21573,7 @@
         <v>45933.89425925926</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21635,7 +21635,7 @@
         <v>44391.40619212963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21697,7 +21697,7 @@
         <v>45933.89484953704</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45933.89372685185</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21821,7 +21821,7 @@
         <v>45933.90118055556</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>45840.60313657407</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>45933.89319444444</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>45933.90063657407</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22064,7 +22064,7 @@
         <v>45934.66789351852</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22126,7 +22126,7 @@
         <v>45840.60550925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22183,7 +22183,7 @@
         <v>45072.3937037037</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22240,7 +22240,7 @@
         <v>45937.75732638889</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22302,7 +22302,7 @@
         <v>45937.75648148148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22364,7 +22364,7 @@
         <v>45937.75783564815</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22426,7 +22426,7 @@
         <v>44503.65924768519</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22483,7 +22483,7 @@
         <v>45211</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22540,7 +22540,7 @@
         <v>45105.61784722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22597,7 +22597,7 @@
         <v>45940.64311342593</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22654,7 +22654,7 @@
         <v>45439.70784722222</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>45103.51847222223</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>45846.67712962963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44610</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>45846.67590277778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>45728.35930555555</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>45105.6140625</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44606.59967592593</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>45257.67709490741</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>45572.47811342592</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45742.36125</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45838.78107638889</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44511</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>45707</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>45867</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>45607</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23581,7 +23581,7 @@
         <v>45434.62350694444</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23643,7 +23643,7 @@
         <v>45840.67255787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23700,7 +23700,7 @@
         <v>45876</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23757,7 +23757,7 @@
         <v>45958</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23819,7 +23819,7 @@
         <v>45489.4169212963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23881,7 +23881,7 @@
         <v>44573</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23938,7 +23938,7 @@
         <v>45253.65600694445</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23995,7 +23995,7 @@
         <v>45876</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>45876</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24109,7 +24109,7 @@
         <v>44804.44864583333</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24166,7 +24166,7 @@
         <v>45881.58667824074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>45162</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24280,7 +24280,7 @@
         <v>45964.47820601852</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45964.49197916667</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>45964.49260416667</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         <v>45964.50881944445</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24528,7 +24528,7 @@
         <v>45723.52434027778</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24590,7 +24590,7 @@
         <v>45964.52699074074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         <v>45964.52752314815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24714,7 +24714,7 @@
         <v>45964.50622685185</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24776,7 +24776,7 @@
         <v>45964.50684027778</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24838,7 +24838,7 @@
         <v>45469.456875</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24895,7 +24895,7 @@
         <v>45254.51172453703</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>45107</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25009,7 +25009,7 @@
         <v>44244</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25066,7 +25066,7 @@
         <v>45608</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25128,7 +25128,7 @@
         <v>44970.63328703704</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25185,7 +25185,7 @@
         <v>45975.38548611111</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25242,7 +25242,7 @@
         <v>44438</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25299,7 +25299,7 @@
         <v>45974.49936342592</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>45887</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>45975.38383101852</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45426.60180555555</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>45599</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>44655.36789351852</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25646,7 +25646,7 @@
         <v>44781</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25703,7 +25703,7 @@
         <v>46021.43664351852</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25760,7 +25760,7 @@
         <v>45587.40885416666</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>45391.67054398148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45303</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>45625.34609953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>44573</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45625.34493055556</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45327</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>46027.74706018518</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26236,7 +26236,7 @@
         <v>46027.74896990741</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26298,7 +26298,7 @@
         <v>45986</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45525</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26417,7 +26417,7 @@
         <v>45525</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26479,7 +26479,7 @@
         <v>45707</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>44993</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45987</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45733.46217592592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>45988.63296296296</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44697</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>46030.71740740741</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>46030.71020833333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45441</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45988.63138888889</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>46030.71207175926</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>45988.62762731482</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45988.62976851852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>45246</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44662.70594907407</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44422</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27406,7 +27406,7 @@
         <v>45427.58246527778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27468,7 +27468,7 @@
         <v>46036.4891087963</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>44808</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45198</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45994.54824074074</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>44995.5728125</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27763,7 +27763,7 @@
         <v>45999.54153935185</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27825,7 +27825,7 @@
         <v>45455.86207175926</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27882,7 +27882,7 @@
         <v>45999.54109953704</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>46030</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28001,7 +28001,7 @@
         <v>45373</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28058,7 +28058,7 @@
         <v>46001.7097337963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28115,7 +28115,7 @@
         <v>46001.71209490741</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28172,7 +28172,7 @@
         <v>45404.66259259259</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         <v>44676.48239583334</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28291,7 +28291,7 @@
         <v>44676.48760416666</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28348,7 +28348,7 @@
         <v>46042.60760416667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28405,7 +28405,7 @@
         <v>46042.63996527778</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28462,7 +28462,7 @@
         <v>46042.64711805555</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>44909.67884259259</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28576,7 +28576,7 @@
         <v>44753</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28638,7 +28638,7 @@
         <v>46043.54592592592</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28695,7 +28695,7 @@
         <v>44358.58163194444</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28752,7 +28752,7 @@
         <v>46045.61797453704</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>46030</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>44999.52805555556</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>44999.53216435185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>45022</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>44343</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45609.47806712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45533.58539351852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29218,7 +29218,7 @@
         <v>46030</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29275,7 +29275,7 @@
         <v>45408.59015046297</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29337,7 +29337,7 @@
         <v>46049.4886574074</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29394,7 +29394,7 @@
         <v>44957</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29451,7 +29451,7 @@
         <v>46007.66248842593</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29508,7 +29508,7 @@
         <v>46007.67032407408</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29565,7 +29565,7 @@
         <v>46007.67262731482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29622,7 +29622,7 @@
         <v>45692</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29679,7 +29679,7 @@
         <v>46007.67962962963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>45188.48960648148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29798,7 +29798,7 @@
         <v>45456.56702546297</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29855,7 +29855,7 @@
         <v>44494.59873842593</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
         <v>44999.52975694444</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29969,7 +29969,7 @@
         <v>45301</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>44578</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30083,7 +30083,7 @@
         <v>46010.67173611111</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>44422</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>46013.59997685185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>46010.63524305556</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>44889.5547337963</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45226</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45664</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>45664</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45162</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30601,7 +30601,7 @@
         <v>46058.48521990741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30658,7 +30658,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30715,7 +30715,7 @@
         <v>44748.73148148148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30772,7 +30772,7 @@
         <v>44915.51126157407</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44435.62600694445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30886,7 +30886,7 @@
         <v>45733.4640625</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>45314</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>45510</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>45473</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>45447.37612268519</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44739.6334375</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>45042.4005787037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>45525.64034722222</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>45285</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>45030.49903935185</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>45481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>45217.42408564815</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>44606.59517361111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45385</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31694,7 +31694,7 @@
         <v>45625.34328703704</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31756,7 +31756,7 @@
         <v>45132.59460648148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31813,7 +31813,7 @@
         <v>44595</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31870,7 +31870,7 @@
         <v>45104.38340277778</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31927,7 +31927,7 @@
         <v>45104</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31984,7 +31984,7 @@
         <v>45503.97861111111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32041,7 +32041,7 @@
         <v>44993.64357638889</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32098,7 +32098,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32155,7 +32155,7 @@
         <v>45572.31850694444</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>44907.60194444445</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>45495.3559375</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32331,7 +32331,7 @@
         <v>45723.52491898148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>45723.58001157407</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32455,7 +32455,7 @@
         <v>45469.45405092592</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>45511.89145833333</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32569,7 +32569,7 @@
         <v>45190.43935185186</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32626,7 +32626,7 @@
         <v>45235</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32688,7 +32688,7 @@
         <v>45391.63415509259</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>45231.68974537037</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>44615</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>44602.59796296297</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>45719.76690972222</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44791</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45028.51484953704</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33092,7 +33092,7 @@
         <v>45370.59278935185</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>45448</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33211,7 +33211,7 @@
         <v>45489.41846064815</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33273,7 +33273,7 @@
         <v>45506.94680555556</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33335,7 +33335,7 @@
         <v>45191</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33392,7 +33392,7 @@
         <v>45723.52548611111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33454,7 +33454,7 @@
         <v>44452</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33511,7 +33511,7 @@
         <v>44641</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33573,7 +33573,7 @@
         <v>44999.53523148148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33630,7 +33630,7 @@
         <v>44463.67348379629</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33687,7 +33687,7 @@
         <v>44467</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33749,7 +33749,7 @@
         <v>44609</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>44442</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33863,7 +33863,7 @@
         <v>45546.61826388889</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33925,7 +33925,7 @@
         <v>45030</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33982,7 +33982,7 @@
         <v>44967.51108796296</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34044,7 +34044,7 @@
         <v>44950</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34101,7 +34101,7 @@
         <v>44950.90216435185</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34158,7 +34158,7 @@
         <v>45364.41105324074</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>45586.63421296296</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34272,7 +34272,7 @@
         <v>44426</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34334,7 +34334,7 @@
         <v>45267.75094907408</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34391,7 +34391,7 @@
         <v>45708</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34448,7 +34448,7 @@
         <v>44473.82302083333</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34505,7 +34505,7 @@
         <v>44488</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34562,7 +34562,7 @@
         <v>45714</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34624,7 +34624,7 @@
         <v>44425.63494212963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34681,7 +34681,7 @@
         <v>44552.34407407408</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34738,7 +34738,7 @@
         <v>45511</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34795,7 +34795,7 @@
         <v>44874</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34852,7 +34852,7 @@
         <v>45735.67546296296</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34909,7 +34909,7 @@
         <v>45327</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34966,7 +34966,7 @@
         <v>44844</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>44995.5708912037</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35085,7 +35085,7 @@
         <v>45109.58806712963</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>45184.41854166667</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35204,7 +35204,7 @@
         <v>44244</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>44487</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>45625.34810185185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35380,7 +35380,7 @@
         <v>44733</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>44438</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45481.97215277778</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>44967.5105787037</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>44501</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35680,7 +35680,7 @@
         <v>44461.52310185185</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35742,7 +35742,7 @@
         <v>44642</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35799,7 +35799,7 @@
         <v>45707</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35861,7 +35861,7 @@
         <v>45707</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35923,7 +35923,7 @@
         <v>45007.47386574074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35980,7 +35980,7 @@
         <v>45254</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36037,7 +36037,7 @@
         <v>44497</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36094,7 +36094,7 @@
         <v>45706</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36156,7 +36156,7 @@
         <v>44456.4811574074</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>45481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36275,7 +36275,7 @@
         <v>44641</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36337,7 +36337,7 @@
         <v>44907.60333333333</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36399,7 +36399,7 @@
         <v>45560.50434027778</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36461,7 +36461,7 @@
         <v>45664</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36518,7 +36518,7 @@
         <v>45664</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36575,7 +36575,7 @@
         <v>45777.55422453704</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36632,7 +36632,7 @@
         <v>45777.54607638889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36689,7 +36689,7 @@
         <v>45777.55945601852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36746,7 +36746,7 @@
         <v>45601.37609953704</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36803,7 +36803,7 @@
         <v>45559.39498842593</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36860,7 +36860,7 @@
         <v>45303.44383101852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36917,7 +36917,7 @@
         <v>45470.45872685185</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36974,7 +36974,7 @@
         <v>45407</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37031,7 +37031,7 @@
         <v>45775</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37088,7 +37088,7 @@
         <v>45667.99460648148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37145,7 +37145,7 @@
         <v>45617.45731481481</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37202,7 +37202,7 @@
         <v>45569.41788194444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37259,7 +37259,7 @@
         <v>45791</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37316,7 +37316,7 @@
         <v>45258</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37373,7 +37373,7 @@
         <v>45790.58875</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37430,7 +37430,7 @@
         <v>45303</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37487,7 +37487,7 @@
         <v>45720</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45629.59212962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44574</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44587</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44579</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45228</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45674</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44950</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>46068.43813657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45212</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44812</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>45575</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44300</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>45922.64197916666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>46036.48571759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45681</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45810</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45680</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45896.54207175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44722</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>45735.86130787037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45706.66359953704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>44461</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44993.71164351852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>45575</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45824.57144675926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45733.60920138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44757</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45656.45586805556</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45030</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>45546.67635416667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45313</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45104</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45575</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>46036.48075231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45687.86934027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>46030</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44508</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>44859</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45115</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44959</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>45714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45343.68663194445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44293.7392824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44348.52565972223</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>44530.40655092592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>44518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44461.47859953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44812</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44798</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44491</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44315</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44606</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44889.51722222222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44607</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44615</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44509</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44480.42299768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44376.68837962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44461.47516203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44456</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44458</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44733</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44825.50923611111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44516.35936342592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44413</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44466.59140046296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44300</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44818</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>44343.5646875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44343.62412037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44647.87050925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44459</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44510.28791666667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44487</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>44753</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44866</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44343.61642361111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44343.62988425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44358</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44430</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44729</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44528.6599074074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44783.38261574074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44386</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44447</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44434</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44449</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44452.38803240741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44510.29388888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44461.51197916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44405</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44419</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>44424</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>44767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44764</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>44446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>44446</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44454.50037037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44480</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44420</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44756.86049768519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44610</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44397</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44776.45553240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44467.58364583334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44463.58862268519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44503</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44530.56172453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44637</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44733.62664351852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44512</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44501.44331018518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44509.74381944445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44850</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44398</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44637</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44517</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44831</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44638</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44714</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44279</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44509.7458449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44474</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44637</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44637</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44334.75537037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44323.73480324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44486</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44734</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44461.49383101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44796</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44514</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44650</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44413</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44391</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44595</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>44432.64310185185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>44497</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>44859.72824074074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>44945.72797453704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>44967.51170138889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45348</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45373</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44608.32383101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45224.59074074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45162</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44508</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44859.69508101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44687.54699074074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>45058.59846064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45714.74899305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45706.67792824074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45733.46162037037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45517.47724537037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45307.60575231481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45343</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45035.6899537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>45741.61515046296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>44631</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>45656</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45453.59858796297</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45453.6003587963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44959</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45681</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44864</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45254</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44950.89840277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44474</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45115</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45115</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45208</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>45715.4134375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44497</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44397</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45453.84284722222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44487</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44866.65612268518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45303</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45572.45697916667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>45072</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45072.39223379629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44967.39028935185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>45819.350625</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45817.37068287037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>45104</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44442</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44568.39900462963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45158.89597222222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>45817</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45887</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45170</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>45027.51179398148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>45825.69447916667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45825.6991550926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44809</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45322</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45890.67743055556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45733.61251157407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45748</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45485</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45485</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45569.55479166667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45485</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45891</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45000</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44498.3784837963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44645</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44650</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44739</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44385</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45748.51697916666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45748</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45733.61097222222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45827.60635416667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45642</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44855</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45827.53324074074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45827.61739583333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45817.32715277778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45714</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45897.37609953704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45896.52702546296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45896.58164351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44593.68526620371</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45896.51261574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44558</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45898.63958333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>45835.52680555556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>45708.95491898148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45835.52280092592</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>45834.36265046296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45835</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>45904.41351851852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45904.61800925926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45903.77434027778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45905.57699074074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>45198.40267361111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>45208.54440972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>45904.4365625</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45208.60009259259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>45656</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>45656</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>45656</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44859.89707175926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>45840.60313657407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45840.60550925926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>45484.44842592593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45089</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45313.60285879629</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45599</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45674</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44431</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44828</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44865.47030092592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45846.67712962963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>45846.67590277778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>45502.59939814815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45471.6228587963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45257.67709490741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45572.47811342592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45742.36125</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45838.78107638889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44438</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44376.67820601852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45922.62282407407</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45922.63743055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44942</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45238</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45922.57255787037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44391.40619212963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45922.62559027778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45867</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45072.3937037037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44503.65924768519</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45211</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45105.61784722222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45930.49436342593</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45439.70784722222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45840.67255787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45103.51847222223</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45876</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45876</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45876</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45933.55381944445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45728.35930555555</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>45881.58667824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44606.59967592593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>45936.49065972222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45933.89425925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45933.89484953704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45933.89372685185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45933.90118055556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45933.89319444444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>45933.90063657407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45934.66789351852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>44511</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>45937.75732638889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>45937.75648148148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45937.75783564815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44438</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45940.64311342593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45887</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44781</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45434.62350694444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45105.6140625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>45489.4169212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44573</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>45253.65600694445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44804.44864583333</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45162</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45723.52434027778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45469.456875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45254.51172453703</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>45107</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>45958</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45608</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44970.63328703704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45964.47820601852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45426.60180555555</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>44655.36789351852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45964.49197916667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>45964.49260416667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45964.50881944445</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>45587.40885416666</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45391.67054398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45303</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45964.52699074074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45964.52752314815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45964.50622685185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>45964.50684027778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45625.34609953704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44573</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>45625.34493055556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45327</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45975.38548611111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45974.49936342592</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45525</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45525</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45975.38383101852</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45707</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>44993</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45733.46217592592</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44697</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>45441</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>45246</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26225,7 +26225,7 @@
         <v>45986</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>44662.70594907407</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45987</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45988.63296296296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45988.63138888889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>44422</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45988.62762731482</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45988.62976851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>45427.58246527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44808</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45198</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44995.5728125</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>46036.4891087963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45994.54824074074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>45455.86207175926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>45373</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>45999.54153935185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45404.66259259259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44676.48239583334</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>44676.48760416666</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45999.54109953704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>46030</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44909.67884259259</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44753</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>46001.7097337963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>46001.71209490741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>46042.60760416667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44358.58163194444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>46042.63996527778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>46042.64711805555</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>46043.54592592592</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44999.52805555556</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44999.53216435185</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44343</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45609.47806712963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45533.58539351852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45408.59015046297</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>46045.61797453704</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>46030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44957</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>46030</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>45692</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>45188.48960648148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>46049.4886574074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>45456.56702546297</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44494.59873842593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>46007.66248842593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>46007.67032407408</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>46007.67262731482</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>46007.67962962963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44999.52975694444</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45301</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>44422</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>46010.67173611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44889.5547337963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>45226</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>46013.59997685185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>45664</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>45664</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>46010.63524305556</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45162</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44445</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44748.73148148148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>46058.48521990741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44915.51126157407</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44435.62600694445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45733.4640625</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>45314</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45510</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>45473</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>45447.37612268519</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>46021.43664351852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44739.6334375</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>45042.4005787037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45525.64034722222</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>45285</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>45030.49903935185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>45481</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>46069.41380787037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>45217.42408564815</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44606.59517361111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45385</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>46027.74896990741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45625.34328703704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>46069.45594907407</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>46027.74706018518</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>46071.66849537037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>45132.59460648148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44595</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>45104.38340277778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45104</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45503.97861111111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>46071.38994212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>46030.71020833333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>46030.71207175926</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44993.64357638889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>45572.31850694444</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44907.60194444445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>46030.71740740741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45495.3559375</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45723.52491898148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45723.58001157407</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45469.45405092592</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45511.89145833333</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45190.43935185186</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45235</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45391.63415509259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45231.68974537037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44615</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44602.59796296297</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>45719.76690972222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44791</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45028.51484953704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>45370.59278935185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>45448</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45489.41846064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45506.94680555556</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>45191</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45723.52548611111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44452</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44641</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44999.53523148148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44463.67348379629</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44467</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>44609</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>44442</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45546.61826388889</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45030</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44967.51108796296</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44950</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44950.90216435185</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45364.41105324074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45586.63421296296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44426</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45267.75094907408</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45708</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44473.82302083333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44488</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>45714</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44425.63494212963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44552.34407407408</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>45511</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44874</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>45735.67546296296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45327</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44844</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44995.5708912037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>45109.58806712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>45184.41854166667</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44487</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35121,7 +35121,7 @@
         <v>45625.34810185185</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44733</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44438</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>45481.97215277778</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>44967.5105787037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         <v>44501</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35483,7 +35483,7 @@
         <v>44461.52310185185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44642</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45707</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45707</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>45007.47386574074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>45254</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>44497</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>45706</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44456.4811574074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45481</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44641</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44907.60333333333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>45560.50434027778</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45664</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45664</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45777.55422453704</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45777.54607638889</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>45777.55945601852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45601.37609953704</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>45559.39498842593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>45303.44383101852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>45470.45872685185</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
         <v>45407</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
         <v>45775</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>45667.99460648148</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45617.45731481481</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45569.41788194444</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45791</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45258</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45790.58875</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45303</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45720</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45680</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>45805.50146990741</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45758</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45817.37528935185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45629.59212962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44574</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45569</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>44587</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45714</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44579</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45228</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45674</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>44950</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>44929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>46068.43813657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>45212</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44812</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
         <v>45575</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
         <v>44300</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>45922.64197916666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>46036.48571759259</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45092</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         <v>44587</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>45681</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>45810</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45680</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45896.54207175926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3393,7 +3393,7 @@
         <v>44722</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45107</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>45735.86130787037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45706.66359953704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         <v>44461</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>44993.71164351852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>45575</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>45824.57144675926</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
         <v>45733.60920138889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44757</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>45656.45586805556</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>45030</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4694,7 +4694,7 @@
         <v>45546.67635416667</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>45510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44476</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>45313</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>45629</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45104</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>45575</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>46036.48075231481</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>45525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>45687.86934027778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5573,7 +5573,7 @@
         <v>46030</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>44508</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         <v>44859</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45115</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         <v>44959</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
         <v>45714</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45343.68663194445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44293.7392824074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44348.52565972223</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>44530.40655092592</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>44518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>44461.47859953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44812</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44798</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44495</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44430</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44491</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44315</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44606</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44889.51722222222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44607</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44615</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>44509</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>44480.42299768519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44376.68837962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44461.47516203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44456</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44458</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44733</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44825.50923611111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44516.35936342592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44413</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44466.59140046296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44300</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44818</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>44343.5646875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44343.62412037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44647.87050925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44459</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44510.28791666667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44487</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>44753</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44866</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44343.61642361111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44343.62988425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44358</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44430</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44729</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44528.6599074074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44522</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44783.38261574074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44781</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44389</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44386</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44447</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44434</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44449</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44452.38803240741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44510.29388888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44461.51197916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44405</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44419</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>44424</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>44767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44764</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>44446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>44446</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44454.50037037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44480</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44420</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44853</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44756.86049768519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44610</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44397</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44776.45553240741</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44467.58364583334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44463.58862268519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44503</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44530.56172453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44637</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44733.62664351852</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44512</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11112,7 +11112,7 @@
         <v>44501.44331018518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11169,7 +11169,7 @@
         <v>44509.74381944445</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44850</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44398</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44637</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44517</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44831</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44638</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44714</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44279</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44509.7458449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44474</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44637</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44637</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44334.75537037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44323.73480324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44486</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44734</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44461.49383101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44796</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44514</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44650</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44413</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44391</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44595</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>44432.64310185185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>44497</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>44859.72824074074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>44945.72797453704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>44967.51170138889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45348</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>45373</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>44608</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>44608.32383101852</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>44608</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>45224.59074074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>45162</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>45078</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>44508</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44859.69508101852</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44687.54699074074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>45058.59846064815</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45714.74899305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>45706.67792824074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14079,7 +14079,7 @@
         <v>45733.46162037037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>44438</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
         <v>45517.47724537037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14255,7 +14255,7 @@
         <v>45307.60575231481</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14312,7 +14312,7 @@
         <v>45343</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>45035.6899537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14426,7 +14426,7 @@
         <v>45741.61515046296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14483,7 +14483,7 @@
         <v>44631</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14540,7 +14540,7 @@
         <v>45656</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14597,7 +14597,7 @@
         <v>45453.59858796297</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14654,7 +14654,7 @@
         <v>45453.6003587963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14711,7 +14711,7 @@
         <v>44959</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14768,7 +14768,7 @@
         <v>45681</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>44864</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14882,7 +14882,7 @@
         <v>45254</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14939,7 +14939,7 @@
         <v>44950.89840277778</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14996,7 +14996,7 @@
         <v>44474</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15053,7 +15053,7 @@
         <v>44734</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15110,7 +15110,7 @@
         <v>45115</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15172,7 +15172,7 @@
         <v>45115</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45208</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15296,7 +15296,7 @@
         <v>45715.4134375</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44497</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15410,7 +15410,7 @@
         <v>44593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15472,7 +15472,7 @@
         <v>44397</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         <v>45453.84284722222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
         <v>45244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15653,7 +15653,7 @@
         <v>45510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>44487</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15767,7 +15767,7 @@
         <v>44866.65612268518</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15824,7 +15824,7 @@
         <v>45303</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15881,7 +15881,7 @@
         <v>45572.45697916667</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44928</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>45072</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>45072.39223379629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44967.39028935185</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>45819.350625</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45817.37068287037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>45104</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44442</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44568.39900462963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45158.89597222222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16523,7 +16523,7 @@
         <v>45817</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45887</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45170</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>45027.51179398148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>45825.69447916667</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45825.6991550926</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>44809</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45322</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>45840</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>45890.67743055556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>45733.61251157407</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45748</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>45257</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>45485</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45485</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>45569.55479166667</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>45485</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>45891</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>45000</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>44498.3784837963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>44662</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>44648</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>44645</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>44650</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>44739</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>44385</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>45748.51697916666</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>45748</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>45733.61097222222</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>45827.60635416667</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>45642</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>44855</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18362,7 +18362,7 @@
         <v>45827.53324074074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>45827.61739583333</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>45817.32715277778</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>45714</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18605,7 +18605,7 @@
         <v>45897.37609953704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>45896.52702546296</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45896.58164351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44593.68526620371</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18843,7 +18843,7 @@
         <v>45896.51261574074</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44558</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>45898.63958333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>45835.52680555556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>45708.95491898148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19133,7 +19133,7 @@
         <v>45835.52280092592</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>45834.36265046296</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19247,7 +19247,7 @@
         <v>45835</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19304,7 +19304,7 @@
         <v>45904.41351851852</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19361,7 +19361,7 @@
         <v>45904.61800925926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45903.77434027778</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19475,7 +19475,7 @@
         <v>45905.57699074074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19532,7 +19532,7 @@
         <v>45198.40267361111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19589,7 +19589,7 @@
         <v>45208.54440972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>45904.4365625</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45208.60009259259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>45656</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>45656</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>45656</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44859.89707175926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>45840.60313657407</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>45840.60550925926</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>45484.44842592593</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45089</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45313.60285879629</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45599</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45674</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>44431</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>44828</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>44865.47030092592</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45846.67712962963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>45846.67590277778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20682,7 +20682,7 @@
         <v>45502.59939814815</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20739,7 +20739,7 @@
         <v>45471.6228587963</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45917</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45257.67709490741</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45572.47811342592</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>45742.36125</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>45838.78107638889</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44438</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44376.67820601852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>45922.62282407407</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>45922.63743055556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44942</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>45238</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>45922.57255787037</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44391.40619212963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>45922.62559027778</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>45867</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21666,7 +21666,7 @@
         <v>45072.3937037037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21723,7 +21723,7 @@
         <v>44503.65924768519</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21780,7 +21780,7 @@
         <v>45211</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45105.61784722222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45930.49436342593</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45439.70784722222</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45840.67255787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>45103.51847222223</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45876</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45876</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45876</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45933.55381944445</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44610</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>45728.35930555555</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>45881.58667824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44606.59967592593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22583,7 +22583,7 @@
         <v>45936.49065972222</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22640,7 +22640,7 @@
         <v>45933.89425925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22702,7 +22702,7 @@
         <v>45933.89484953704</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>45933.89372685185</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22826,7 +22826,7 @@
         <v>45933.90118055556</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>45933.89319444444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22950,7 +22950,7 @@
         <v>45933.90063657407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23012,7 +23012,7 @@
         <v>45934.66789351852</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23074,7 +23074,7 @@
         <v>44511</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23131,7 +23131,7 @@
         <v>45707</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>45937.75732638889</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23255,7 +23255,7 @@
         <v>45937.75648148148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23317,7 +23317,7 @@
         <v>45937.75783564815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23379,7 +23379,7 @@
         <v>45607</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23441,7 +23441,7 @@
         <v>44438</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23498,7 +23498,7 @@
         <v>45940.64311342593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23555,7 +23555,7 @@
         <v>45887</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23612,7 +23612,7 @@
         <v>44781</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23669,7 +23669,7 @@
         <v>45434.62350694444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23731,7 +23731,7 @@
         <v>45105.6140625</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23788,7 +23788,7 @@
         <v>45489.4169212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23850,7 +23850,7 @@
         <v>44573</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23907,7 +23907,7 @@
         <v>45253.65600694445</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23964,7 +23964,7 @@
         <v>44804.44864583333</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24021,7 +24021,7 @@
         <v>45162</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>45723.52434027778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24140,7 +24140,7 @@
         <v>45469.456875</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24197,7 +24197,7 @@
         <v>45254.51172453703</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         <v>45107</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24311,7 +24311,7 @@
         <v>45958</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24373,7 +24373,7 @@
         <v>45608</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24435,7 +24435,7 @@
         <v>44970.63328703704</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24492,7 +24492,7 @@
         <v>45964.47820601852</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24554,7 +24554,7 @@
         <v>45426.60180555555</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24611,7 +24611,7 @@
         <v>45599</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24668,7 +24668,7 @@
         <v>44655.36789351852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24730,7 +24730,7 @@
         <v>45964.49197916667</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24792,7 +24792,7 @@
         <v>45964.49260416667</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24854,7 +24854,7 @@
         <v>45964.50881944445</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24916,7 +24916,7 @@
         <v>45587.40885416666</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>45391.67054398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25035,7 +25035,7 @@
         <v>45303</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25092,7 +25092,7 @@
         <v>45964.52699074074</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25154,7 +25154,7 @@
         <v>45964.52752314815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45964.50622685185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>45964.50684027778</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25340,7 +25340,7 @@
         <v>45625.34609953704</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25402,7 +25402,7 @@
         <v>44573</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25459,7 +25459,7 @@
         <v>45625.34493055556</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45327</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45975.38548611111</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45974.49936342592</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45525</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45525</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45975.38383101852</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45707</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25935,7 +25935,7 @@
         <v>44993</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45733.46217592592</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>44697</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26111,7 +26111,7 @@
         <v>45441</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26168,7 +26168,7 @@
         <v>45246</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26225,7 +26225,7 @@
         <v>45986</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26282,7 +26282,7 @@
         <v>44662.70594907407</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26339,7 +26339,7 @@
         <v>45987</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26396,7 +26396,7 @@
         <v>45988.63296296296</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26453,7 +26453,7 @@
         <v>45988.63138888889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26510,7 +26510,7 @@
         <v>44422</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26572,7 +26572,7 @@
         <v>45988.62762731482</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45988.62976851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26686,7 +26686,7 @@
         <v>45427.58246527778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>44808</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26805,7 +26805,7 @@
         <v>45198</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26862,7 +26862,7 @@
         <v>44995.5728125</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26924,7 +26924,7 @@
         <v>46036.4891087963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45994.54824074074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27043,7 +27043,7 @@
         <v>45455.86207175926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>45373</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>45999.54153935185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
         <v>45404.66259259259</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27281,7 +27281,7 @@
         <v>44676.48239583334</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27338,7 +27338,7 @@
         <v>44676.48760416666</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27395,7 +27395,7 @@
         <v>45999.54109953704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27457,7 +27457,7 @@
         <v>46030</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27514,7 +27514,7 @@
         <v>44909.67884259259</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27571,7 +27571,7 @@
         <v>44753</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>46001.7097337963</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>46001.71209490741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>46042.60760416667</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>44358.58163194444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>46042.63996527778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>46042.64711805555</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>46043.54592592592</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>44999.52805555556</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>44999.53216435185</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45022</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>44343</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45609.47806712963</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45533.58539351852</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28379,7 +28379,7 @@
         <v>45408.59015046297</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28441,7 +28441,7 @@
         <v>46045.61797453704</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>46030</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44957</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>46030</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>45692</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28731,7 +28731,7 @@
         <v>45188.48960648148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>46049.4886574074</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>45456.56702546297</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44494.59873842593</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>46007.66248842593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>46007.67032407408</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>46007.67262731482</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>46007.67962962963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>44999.52975694444</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45301</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29306,7 +29306,7 @@
         <v>44578</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29363,7 +29363,7 @@
         <v>44422</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29425,7 +29425,7 @@
         <v>46010.67173611111</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29482,7 +29482,7 @@
         <v>44889.5547337963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29539,7 +29539,7 @@
         <v>45226</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29596,7 +29596,7 @@
         <v>46013.59997685185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29653,7 +29653,7 @@
         <v>45664</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29710,7 +29710,7 @@
         <v>45664</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>46010.63524305556</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29824,7 +29824,7 @@
         <v>45162</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29881,7 +29881,7 @@
         <v>44445</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>44748.73148148148</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29995,7 +29995,7 @@
         <v>46058.48521990741</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30052,7 +30052,7 @@
         <v>44915.51126157407</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30109,7 +30109,7 @@
         <v>44435.62600694445</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30166,7 +30166,7 @@
         <v>45733.4640625</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30228,7 +30228,7 @@
         <v>45314</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30285,7 +30285,7 @@
         <v>45510</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30342,7 +30342,7 @@
         <v>45473</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30399,7 +30399,7 @@
         <v>45447.37612268519</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>46021.43664351852</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44739.6334375</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>45042.4005787037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>45525.64034722222</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30684,7 +30684,7 @@
         <v>45285</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30741,7 +30741,7 @@
         <v>45030.49903935185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>45481</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30855,7 +30855,7 @@
         <v>46069.41380787037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30912,7 +30912,7 @@
         <v>45217.42408564815</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30969,7 +30969,7 @@
         <v>44606.59517361111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31026,7 +31026,7 @@
         <v>45385</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31088,7 +31088,7 @@
         <v>46027.74896990741</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31150,7 +31150,7 @@
         <v>45625.34328703704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>46069.45594907407</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>46027.74706018518</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>46071.66849537037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31388,7 +31388,7 @@
         <v>45132.59460648148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31445,7 +31445,7 @@
         <v>44595</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31502,7 +31502,7 @@
         <v>45104.38340277778</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31559,7 +31559,7 @@
         <v>45104</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31616,7 +31616,7 @@
         <v>45503.97861111111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31673,7 +31673,7 @@
         <v>46071.38994212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>46030.71020833333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31787,7 +31787,7 @@
         <v>46030.71207175926</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
         <v>44993.64357638889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31901,7 +31901,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31958,7 +31958,7 @@
         <v>45572.31850694444</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32015,7 +32015,7 @@
         <v>44907.60194444445</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32077,7 +32077,7 @@
         <v>46030.71740740741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45495.3559375</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32191,7 +32191,7 @@
         <v>45723.52491898148</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>45723.58001157407</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45469.45405092592</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>45511.89145833333</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32429,7 +32429,7 @@
         <v>45190.43935185186</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32486,7 +32486,7 @@
         <v>45235</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32548,7 +32548,7 @@
         <v>45391.63415509259</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32605,7 +32605,7 @@
         <v>45231.68974537037</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32662,7 +32662,7 @@
         <v>44615</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32719,7 +32719,7 @@
         <v>44602.59796296297</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32776,7 +32776,7 @@
         <v>45719.76690972222</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32833,7 +32833,7 @@
         <v>44791</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32890,7 +32890,7 @@
         <v>45028.51484953704</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32952,7 +32952,7 @@
         <v>45370.59278935185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33009,7 +33009,7 @@
         <v>45448</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33071,7 +33071,7 @@
         <v>45489.41846064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33133,7 +33133,7 @@
         <v>45506.94680555556</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33195,7 +33195,7 @@
         <v>45191</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33252,7 +33252,7 @@
         <v>45723.52548611111</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33314,7 +33314,7 @@
         <v>44452</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33371,7 +33371,7 @@
         <v>44641</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33433,7 +33433,7 @@
         <v>44999.53523148148</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33490,7 +33490,7 @@
         <v>44463.67348379629</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33547,7 +33547,7 @@
         <v>44467</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33609,7 +33609,7 @@
         <v>44609</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33666,7 +33666,7 @@
         <v>44442</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33723,7 +33723,7 @@
         <v>45546.61826388889</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>45030</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44967.51108796296</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>44950</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33961,7 +33961,7 @@
         <v>44950.90216435185</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34018,7 +34018,7 @@
         <v>45364.41105324074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34075,7 +34075,7 @@
         <v>45586.63421296296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44426</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45267.75094907408</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34251,7 +34251,7 @@
         <v>45708</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34308,7 +34308,7 @@
         <v>44473.82302083333</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44488</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>45714</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34484,7 +34484,7 @@
         <v>44425.63494212963</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44552.34407407408</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>45511</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34655,7 +34655,7 @@
         <v>44874</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34712,7 +34712,7 @@
         <v>45735.67546296296</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34769,7 +34769,7 @@
         <v>45327</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34826,7 +34826,7 @@
         <v>44844</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34883,7 +34883,7 @@
         <v>44995.5708912037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34945,7 +34945,7 @@
         <v>45109.58806712963</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35002,7 +35002,7 @@
         <v>45184.41854166667</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>44487</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35121,7 +35121,7 @@
         <v>45625.34810185185</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35183,7 +35183,7 @@
         <v>44733</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44438</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>45481.97215277778</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>44967.5105787037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         <v>44501</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35483,7 +35483,7 @@
         <v>44461.52310185185</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35545,7 +35545,7 @@
         <v>44642</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35602,7 +35602,7 @@
         <v>45707</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35664,7 +35664,7 @@
         <v>45707</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35726,7 +35726,7 @@
         <v>45007.47386574074</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35783,7 +35783,7 @@
         <v>45254</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35840,7 +35840,7 @@
         <v>44497</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35897,7 +35897,7 @@
         <v>45706</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35959,7 +35959,7 @@
         <v>44456.4811574074</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36021,7 +36021,7 @@
         <v>45481</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36078,7 +36078,7 @@
         <v>44641</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36140,7 +36140,7 @@
         <v>44907.60333333333</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>45560.50434027778</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>45664</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45664</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>45777.55422453704</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45777.54607638889</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>45777.55945601852</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>45601.37609953704</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>45559.39498842593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>45303.44383101852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>45470.45872685185</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
         <v>45407</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
         <v>45775</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>45667.99460648148</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45617.45731481481</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45569.41788194444</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45791</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45258</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45790.58875</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45303</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45720</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45680</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37409,7 +37409,7 @@
         <v>45805.50146990741</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37466,7 +37466,7 @@
         <v>45758</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37523,7 +37523,7 @@
         <v>45817.37528935185</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>

--- a/Översikt ASKERSUND.xlsx
+++ b/Översikt ASKERSUND.xlsx
@@ -575,7 +575,7 @@
         <v>45629.59212962963</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45635</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         <v>44950</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         <v>44574</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>45714</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>44587</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45569</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
         <v>44579</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>45349</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>45674</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>45228</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>44950</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>46068.43813657408</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44375</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44587</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         <v>45810</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         <v>44300</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>45575</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2316,7 +2316,7 @@
         <v>45922.64197916666</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         <v>44812</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45212</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2673,7 +2673,7 @@
         <v>46036.48571759259</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         <v>45092</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>45681</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44714</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44463</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>45896.54207175926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>45107</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         <v>45680</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>44722</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         <v>44416</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3655,7 +3655,7 @@
         <v>44452</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>44508</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44757</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>45575</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>44959</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45824.57144675926</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         <v>45733.60920138889</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>44993.71164351852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4429,7 +4429,7 @@
         <v>45115</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4523,7 +4523,7 @@
         <v>44461</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4613,7 +4613,7 @@
         <v>44476</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
         <v>45629</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>45525</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>45735.86130787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         <v>45546.67635416667</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
         <v>45313</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5142,7 +5142,7 @@
         <v>45656.45586805556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>45575</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>44859</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>46030</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45714</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>46036.48075231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45030</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45687.86934027778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
         <v>45706.66359953704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
         <v>45510</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         <v>45104</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         <v>45343.68663194445</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         <v>44495</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>44293.7392824074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         <v>44348.52565972223</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         <v>44461.47859953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6415,7 +6415,7 @@
         <v>44812</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         <v>44518</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         <v>44798</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6586,7 +6586,7 @@
         <v>44721</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6643,7 +6643,7 @@
         <v>44430</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6700,7 +6700,7 @@
         <v>44530.40655092592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>44491</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         <v>44315</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44606</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6933,7 +6933,7 @@
         <v>44889.51722222222</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>44607</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7047,7 +7047,7 @@
         <v>44529</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>44480.42299768519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44509</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44615</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44376.68837962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44461.47516203704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44783</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44456</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44458</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44733</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44825.50923611111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>44516.35936342592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44844</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>44413</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44466.59140046296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>44300</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>44300</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44818</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         <v>44343.5646875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
         <v>44343.62412037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8269,7 +8269,7 @@
         <v>44647.87050925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8331,7 +8331,7 @@
         <v>44459</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8388,7 +8388,7 @@
         <v>44510.28791666667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>44487</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
         <v>44753</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>44866</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8621,7 +8621,7 @@
         <v>44343.61642361111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
         <v>44343.62988425926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8735,7 +8735,7 @@
         <v>44358</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         <v>44430</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>44729</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>44522</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>44783.38261574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44781</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44389</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44528.6599074074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>44386</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9248,7 +9248,7 @@
         <v>44447</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9305,7 +9305,7 @@
         <v>44434</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9362,7 +9362,7 @@
         <v>44449</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9419,7 +9419,7 @@
         <v>44452.38803240741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44510.29388888889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44461.51197916667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44405</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44419</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>44424</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>44767</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44764</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>44446</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>44446</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44454.50037037037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44480</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44480</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44420</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44756.86049768519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44610</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44853</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44397</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44463</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10522,7 +10522,7 @@
         <v>44407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44509.74381944445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44463.58862268519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44467.58364583334</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44776.45553240741</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44503</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44530.56172453704</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10998,7 +10998,7 @@
         <v>44512</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44637</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44733.62664351852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44501.44331018518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44850</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44629</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44398</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44438</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44637</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44517</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44831</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44638</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44714</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44279</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44509.7458449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44474</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11982,7 +11982,7 @@
         <v>44637</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12039,7 +12039,7 @@
         <v>44637</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>44334.75537037037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>44323.73480324074</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12220,7 +12220,7 @@
         <v>44486</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12277,7 +12277,7 @@
         <v>44734</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>44424</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>44461.49383101852</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12453,7 +12453,7 @@
         <v>44796</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>44514</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>44641</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>44523</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>44592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>44650</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>44413</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44391</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44432.64310185185</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>44595</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>44497</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>45343</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45042.4005787037</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>44422</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13266,7 +13266,7 @@
         <v>45170</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45211</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>45572.45697916667</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44739.6334375</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45208.54440972222</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>44791</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45238</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>44445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>44864</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45254.51172453703</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45373</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45391.63415509259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>44426</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>44809</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45453.84284722222</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>45469.45405092592</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>45455.86207175926</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44497</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45481.97215277778</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45481</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>44957</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14493,7 +14493,7 @@
         <v>44425.63494212963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44467</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44438</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44950</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>44950.90216435185</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>44452</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>45503.97861111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45489.41846064815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14959,7 +14959,7 @@
         <v>45533.58539351852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15021,7 +15021,7 @@
         <v>45489.4169212963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>45235</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44874</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>45427.58246527778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45484.44842592593</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45586.63421296296</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44999.52805555556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44999.53216435185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44915.51126157407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44859.89707175926</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45625.34328703704</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44642</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15782,7 +15782,7 @@
         <v>44552.34407407408</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15839,7 +15839,7 @@
         <v>45805.50146990741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15896,7 +15896,7 @@
         <v>44995.5728125</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>45887</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>45348</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45840</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>45028.51484953704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16191,7 +16191,7 @@
         <v>45817</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16248,7 +16248,7 @@
         <v>45817.37068287037</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16305,7 +16305,7 @@
         <v>45887</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16362,7 +16362,7 @@
         <v>45758</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44781</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16476,7 +16476,7 @@
         <v>44615</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16533,7 +16533,7 @@
         <v>45132.59460648148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>45103.51847222223</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>45890.67743055556</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>44950.89840277778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45510</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45817.37528935185</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44568.39900462963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>44676.48239583334</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>44676.48760416666</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45817.32715277778</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17108,7 +17108,7 @@
         <v>45408.59015046297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>45891</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>45587.40885416666</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>45819.350625</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45385</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44593.68526620371</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17470,7 +17470,7 @@
         <v>45404.66259259259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17532,7 +17532,7 @@
         <v>44397</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17589,7 +17589,7 @@
         <v>44967.51170138889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>45825.69447916667</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>45825.6991550926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>45896.51261574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         <v>45896.52702546296</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         <v>44498.3784837963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>45569.55479166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         <v>45642</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>44648</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         <v>44645</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         <v>45485</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         <v>45485</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18293,7 +18293,7 @@
         <v>44662</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18350,7 +18350,7 @@
         <v>44650</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         <v>44907.60333333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18469,7 +18469,7 @@
         <v>45896.58164351852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18526,7 +18526,7 @@
         <v>45898.63958333333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18583,7 +18583,7 @@
         <v>44385</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18640,7 +18640,7 @@
         <v>45748.51697916666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>44855</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44739</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>45257</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>45208.60009259259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45733.61097222222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18987,7 +18987,7 @@
         <v>45733.61251157407</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         <v>45485</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>45748</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>45897.37609953704</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19215,7 +19215,7 @@
         <v>45748</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19272,7 +19272,7 @@
         <v>45827.61739583333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44438</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45692</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45827.60635416667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>45827.53324074074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>45447.37612268519</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>45904.4365625</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44456.4811574074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19748,7 +19748,7 @@
         <v>45904.61800925926</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>45723.52548611111</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         <v>45903.77434027778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>45904.41351851852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>45905.57699074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>44641</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>45834.36265046296</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>45835.52280092592</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20214,7 +20214,7 @@
         <v>45835.52680555556</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20271,7 +20271,7 @@
         <v>44442</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20328,7 +20328,7 @@
         <v>45835</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20385,7 +20385,7 @@
         <v>45840.60550925926</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20442,7 +20442,7 @@
         <v>44967.51108796296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>45840.60313657407</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>45027.51179398148</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45226</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45426.60180555555</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45267.75094907408</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>44609</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45846.67590277778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>45846.67712962963</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>44828</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>44993.64357638889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>45599</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>44487</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45742.36125</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21245,7 +21245,7 @@
         <v>45572.47811342592</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45506.94680555556</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21369,7 +21369,7 @@
         <v>45022</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21426,7 +21426,7 @@
         <v>45257.67709490741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21483,7 +21483,7 @@
         <v>44474</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
         <v>45707</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21602,7 +21602,7 @@
         <v>45838.78107638889</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21659,7 +21659,7 @@
         <v>44999.53523148148</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21716,7 +21716,7 @@
         <v>45917</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45922.62282407407</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>45922.63743055556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21887,7 +21887,7 @@
         <v>45922.57255787037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21944,7 +21944,7 @@
         <v>45607</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22006,7 +22006,7 @@
         <v>45922.62559027778</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22063,7 +22063,7 @@
         <v>45158.89597222222</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22125,7 +22125,7 @@
         <v>45867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22182,7 +22182,7 @@
         <v>45656</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22239,7 +22239,7 @@
         <v>45030.49903935185</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22296,7 +22296,7 @@
         <v>45930.49436342593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22353,7 +22353,7 @@
         <v>45733.46162037037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22415,7 +22415,7 @@
         <v>44753</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22477,7 +22477,7 @@
         <v>45707</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22539,7 +22539,7 @@
         <v>45707</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22601,7 +22601,7 @@
         <v>45876</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22658,7 +22658,7 @@
         <v>45876</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22715,7 +22715,7 @@
         <v>45876</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22772,7 +22772,7 @@
         <v>45840.67255787037</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22829,7 +22829,7 @@
         <v>44358.58163194444</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22886,7 +22886,7 @@
         <v>44748.73148148148</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22943,7 +22943,7 @@
         <v>45881.58667824074</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23000,7 +23000,7 @@
         <v>45719.76690972222</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23057,7 +23057,7 @@
         <v>45933.89425925926</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23119,7 +23119,7 @@
         <v>45933.89484953704</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23181,7 +23181,7 @@
         <v>44343</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23238,7 +23238,7 @@
         <v>45933.89372685185</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23300,7 +23300,7 @@
         <v>45933.90118055556</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23362,7 +23362,7 @@
         <v>44391.40619212963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45933.90063657407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23486,7 +23486,7 @@
         <v>44438</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>45934.66789351852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23605,7 +23605,7 @@
         <v>45936.49065972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>45933.89319444444</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>45933.55381944445</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>45733.46217592592</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>45937.75648148148</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>45937.75783564815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>45517.47724537037</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24029,7 +24029,7 @@
         <v>45937.75732638889</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44442</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>45511.89145833333</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>45940.64311342593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44573</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45714.74899305555</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>44463.67348379629</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45072.3937037037</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>45735.67546296296</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>45741.61515046296</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44488</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>44595</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>45105.6140625</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>45105.61784722222</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>45510</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>44438</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>44859.72824074074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>45391.67054398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>45958</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25122,7 +25122,7 @@
         <v>45115</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>45115</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25246,7 +25246,7 @@
         <v>44608</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25303,7 +25303,7 @@
         <v>44503.65924768519</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25360,7 +25360,7 @@
         <v>44907.60194444445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25422,7 +25422,7 @@
         <v>44967.5105787037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>45964.50881944445</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25546,7 +25546,7 @@
         <v>45964.52699074074</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25608,7 +25608,7 @@
         <v>45964.47820601852</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25670,7 +25670,7 @@
         <v>45964.50622685185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25732,7 +25732,7 @@
         <v>45964.50684027778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25794,7 +25794,7 @@
         <v>45964.49197916667</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25856,7 +25856,7 @@
         <v>45964.49260416667</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45964.52752314815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>45254</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45609.47806712963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44487</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45322</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>45525</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26270,7 +26270,7 @@
         <v>45525</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>45104</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>44558</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>45078</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26503,7 +26503,7 @@
         <v>44959</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26560,7 +26560,7 @@
         <v>45030</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26617,7 +26617,7 @@
         <v>45625.34609953704</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26679,7 +26679,7 @@
         <v>44593</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>45974.49936342592</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26798,7 +26798,7 @@
         <v>45000</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26855,7 +26855,7 @@
         <v>45608</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>44494.59873842593</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>45303</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>45975.38383101852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>45511</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27145,7 +27145,7 @@
         <v>45975.38548611111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27202,7 +27202,7 @@
         <v>45656</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27259,7 +27259,7 @@
         <v>45572.31850694444</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27316,7 +27316,7 @@
         <v>44866.65612268518</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27373,7 +27373,7 @@
         <v>44993</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27430,7 +27430,7 @@
         <v>45190.43935185186</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27487,7 +27487,7 @@
         <v>45986</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45546.61826388889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27606,7 +27606,7 @@
         <v>44608</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27663,7 +27663,7 @@
         <v>44608.32383101852</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27720,7 +27720,7 @@
         <v>44967.39028935185</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27777,7 +27777,7 @@
         <v>45988.62762731482</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27834,7 +27834,7 @@
         <v>45327</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27891,7 +27891,7 @@
         <v>45987</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45988.62976851852</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>45988.63138888889</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45988.63296296296</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45162</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>44578</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>45994.54824074074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45104.38340277778</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28347,7 +28347,7 @@
         <v>44602.59796296297</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44662.70594907407</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28461,7 +28461,7 @@
         <v>45198</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28518,7 +28518,7 @@
         <v>46042.64711805555</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28575,7 +28575,7 @@
         <v>45999.54109953704</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44697</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>46042.60760416667</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45999.54153935185</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>44606.59517361111</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28870,7 +28870,7 @@
         <v>44641</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>46042.63996527778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>46001.7097337963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>46001.71209490741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>46030</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>45217.42408564815</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45560.50434027778</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29279,7 +29279,7 @@
         <v>45072</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29336,7 +29336,7 @@
         <v>45072.39223379629</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29393,7 +29393,7 @@
         <v>46043.54592592592</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45191</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>46030</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29564,7 +29564,7 @@
         <v>46030</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29621,7 +29621,7 @@
         <v>45162</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29678,7 +29678,7 @@
         <v>46045.61797453704</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29740,7 +29740,7 @@
         <v>45198.40267361111</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29797,7 +29797,7 @@
         <v>46007.67962962963</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29854,7 +29854,7 @@
         <v>45706</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>46007.67032407408</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>46007.67262731482</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45456.56702546297</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>46049.4886574074</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>46007.66248842593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44808</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45254</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45208</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>45714</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45681</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>44804.44864583333</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>46010.63524305556</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>46010.67173611111</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45728.35930555555</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45708</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45188.48960648148</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>46013.59997685185</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30900,7 +30900,7 @@
         <v>45707</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45307.60575231481</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31019,7 +31019,7 @@
         <v>46058.48521990741</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31076,7 +31076,7 @@
         <v>45285</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31133,7 +31133,7 @@
         <v>45723.58001157407</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>44734</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45109.58806712963</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45448</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>45364.41105324074</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31428,7 +31428,7 @@
         <v>46021.43664351852</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>44687.54699074074</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45471.6228587963</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31609,7 +31609,7 @@
         <v>46069.45594907407</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31666,7 +31666,7 @@
         <v>46027.74706018518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31728,7 +31728,7 @@
         <v>46027.74896990741</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>46069.41380787037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>46071.66849537037</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>46071.38994212963</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>46030.71740740741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32018,7 +32018,7 @@
         <v>45007.47386574074</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32075,7 +32075,7 @@
         <v>46030.71020833333</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32132,7 +32132,7 @@
         <v>46030.71207175926</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32189,7 +32189,7 @@
         <v>45301</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>45441</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32303,7 +32303,7 @@
         <v>45733.4640625</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>44889.5547337963</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>45327</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45714</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>45107</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>44865.47030092592</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32655,7 +32655,7 @@
         <v>45656</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>45656</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32769,7 +32769,7 @@
         <v>45453.59858796297</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32826,7 +32826,7 @@
         <v>45453.6003587963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32883,7 +32883,7 @@
         <v>45525.64034722222</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32940,7 +32940,7 @@
         <v>44473.82302083333</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32997,7 +32997,7 @@
         <v>44573</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33054,7 +33054,7 @@
         <v>46036.4891087963</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33116,7 +33116,7 @@
         <v>45058.59846064815</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33178,7 +33178,7 @@
         <v>44610</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33235,7 +33235,7 @@
         <v>44909.67884259259</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33292,7 +33292,7 @@
         <v>44928</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33349,7 +33349,7 @@
         <v>46080.48822916667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33406,7 +33406,7 @@
         <v>44497</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33463,7 +33463,7 @@
         <v>45469.456875</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>44859.69508101852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33577,7 +33577,7 @@
         <v>44733</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>45246</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>45184.41854166667</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33758,7 +33758,7 @@
         <v>44511</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33815,7 +33815,7 @@
         <v>44487</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33872,7 +33872,7 @@
         <v>44970.63328703704</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33929,7 +33929,7 @@
         <v>44435.62600694445</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>45599</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44606.59967592593</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44945.72797453704</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44995.5708912037</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45674</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>45035.6899537037</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>44655.36789351852</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34395,7 +34395,7 @@
         <v>45231.68974537037</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34452,7 +34452,7 @@
         <v>45373</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34509,7 +34509,7 @@
         <v>45370.59278935185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34566,7 +34566,7 @@
         <v>44844</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34623,7 +34623,7 @@
         <v>45625.34493055556</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34685,7 +34685,7 @@
         <v>45502.59939814815</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>44431</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34799,7 +34799,7 @@
         <v>44461.52310185185</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34861,7 +34861,7 @@
         <v>45244</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34923,7 +34923,7 @@
         <v>45706.67792824074</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34985,7 +34985,7 @@
         <v>45439.70784722222</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35042,7 +35042,7 @@
         <v>44376.67820601852</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35099,7 +35099,7 @@
         <v>45162</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35156,7 +35156,7 @@
         <v>44422</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>45495.3559375</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>45723.52434027778</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35337,7 +35337,7 @@
         <v>45303</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35394,7 +35394,7 @@
         <v>44631</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35451,7 +35451,7 @@
         <v>45224.59074074074</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35508,7 +35508,7 @@
         <v>45089</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35565,7 +35565,7 @@
         <v>44501</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35622,7 +35622,7 @@
         <v>45104</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45664</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45664</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35793,7 +35793,7 @@
         <v>45434.62350694444</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45313.60285879629</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45715.4134375</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45723.52491898148</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36031,7 +36031,7 @@
         <v>45664</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45664</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36145,7 +36145,7 @@
         <v>45314</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36202,7 +36202,7 @@
         <v>45625.34810185185</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36264,7 +36264,7 @@
         <v>44508</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36321,7 +36321,7 @@
         <v>45708.95491898148</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36378,7 +36378,7 @@
         <v>44942</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36435,7 +36435,7 @@
         <v>45473</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36492,7 +36492,7 @@
         <v>45253.65600694445</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36549,7 +36549,7 @@
         <v>44999.52975694444</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36606,7 +36606,7 @@
         <v>45777.55422453704</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36663,7 +36663,7 @@
         <v>45777.54607638889</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36720,7 +36720,7 @@
         <v>45777.55945601852</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36777,7 +36777,7 @@
         <v>45303.44383101852</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36834,7 +36834,7 @@
         <v>45559.39498842593</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36891,7 +36891,7 @@
         <v>45601.37609953704</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36948,7 +36948,7 @@
         <v>45470.45872685185</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37005,7 +37005,7 @@
         <v>45667.99460648148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37062,7 +37062,7 @@
         <v>45407</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37119,7 +37119,7 @@
         <v>45775</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37176,7 +37176,7 @@
         <v>45790.58875</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37233,7 +37233,7 @@
         <v>45569.41788194444</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37290,7 +37290,7 @@
         <v>45258</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37347,7 +37347,7 @@
         <v>45791</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>45617.45731481481</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>45720</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>45680</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37580,7 +37580,7 @@
         <v>45303</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
